--- a/doc/D4_ドキュメント/04_画面遷移図_D4.xlsx
+++ b/doc/D4_ドキュメント/04_画面遷移図_D4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\開発演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA82BDC-DEC8-4733-935D-B0109B45F853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74638597-8F40-4A6E-BE32-4F7C5A9709F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,6 +213,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="四角形: 角を丸くする 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA63489-E203-5E2F-D4B8-7C2ED0E8F74F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6064250" y="1231900"/>
+          <a:ext cx="2146300" cy="2292350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>908050</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -304,6 +364,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -365,6 +430,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -573,15 +643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -596,12 +666,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6203950" y="2032000"/>
-          <a:ext cx="1327150" cy="349250"/>
+          <a:off x="6153150" y="1377950"/>
+          <a:ext cx="1803400" cy="736600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -624,8 +699,29 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク・目標追加</a:t>
+            <a:t>入力画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>長期目標・短期目標・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>todo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の追加・編集・削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -633,16 +729,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -657,8 +753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6242050" y="1473200"/>
-          <a:ext cx="933450" cy="355600"/>
+          <a:off x="5956300" y="450850"/>
+          <a:ext cx="2152650" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -685,129 +781,23 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カレンダー</a:t>
+            <a:t>表示画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34385341-87EA-4EAB-89B2-C7AFC7CF4418}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6229350" y="2501900"/>
-          <a:ext cx="1066800" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>目標・達成度</a:t>
+            <a:t>カレンダー</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DA4650-4BC8-431F-9BF0-2BC9B4AE623E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6216650" y="3676650"/>
-          <a:ext cx="1028700" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログアウト</a:t>
+            <a:t>日付押すとトップページへ遷移</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -873,71 +863,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A7D665-32B5-4DBB-869B-DC6A61BE0070}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4991100" y="2667000"/>
-          <a:ext cx="1231900" cy="1073150"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -952,8 +886,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5200650" y="2311400"/>
-          <a:ext cx="1041400" cy="323850"/>
+          <a:off x="5207000" y="2292350"/>
+          <a:ext cx="971550" cy="44450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -986,15 +920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1005,12 +939,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5187950" y="2139950"/>
-          <a:ext cx="1028700" cy="38100"/>
+        <a:xfrm flipV="1">
+          <a:off x="5137150" y="1746250"/>
+          <a:ext cx="1016000" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1043,15 +979,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1062,12 +998,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5194300" y="1663700"/>
-          <a:ext cx="1035050" cy="349250"/>
+          <a:off x="5092700" y="847725"/>
+          <a:ext cx="863600" cy="1089025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1100,63 +1038,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD06A803-C4F8-4E6E-9E99-744C3753E717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3149600" y="2266950"/>
-          <a:ext cx="3105150" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>977900</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -1186,6 +1067,11 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1207,17 +1093,26 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>トップ画面</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+            <a:t>一日のスケジュール</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>入力・表示画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>ログイン日の予定表示</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1226,15 +1121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1249,7 +1144,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="3111500"/>
+          <a:off x="6445250" y="4171950"/>
           <a:ext cx="1174750" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1287,15 +1182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1306,12 +1201,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5213350" y="2565400"/>
-          <a:ext cx="1022350" cy="590550"/>
+          <a:off x="5181600" y="2711450"/>
+          <a:ext cx="1238250" cy="1120775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1343,16 +1240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1367,8 +1264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7550150" y="1428750"/>
-          <a:ext cx="577850" cy="2825750"/>
+          <a:off x="8242300" y="501650"/>
+          <a:ext cx="361950" cy="4178300"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -1412,16 +1309,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1436,8 +1333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="2546350"/>
-          <a:ext cx="1530350" cy="552450"/>
+          <a:off x="8636000" y="2489200"/>
+          <a:ext cx="1625600" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1464,7 +1361,297 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メニューバーの各項目</a:t>
+            <a:t>メニューバーの各項目、トップページ、ログアウトも項目に入る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355E532F-3B84-411D-92C8-C61610478606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="3562350"/>
+          <a:ext cx="1371600" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力・表示画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目標・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>todo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>達成度</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CA9FBB-B87E-4F7F-AAFC-001D6CD4F75F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4864100" y="2692400"/>
+          <a:ext cx="1600200" cy="1517650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1C1518-C8E1-47B8-83EA-DF5D6B8079E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6178550" y="2152650"/>
+          <a:ext cx="1987550" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスクの追加・編集・削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="吹き出し: 円形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5B9CEA-8281-B9FD-EB92-0FE87D480B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="908050"/>
+          <a:ext cx="2032000" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64096"/>
+            <a:gd name="adj2" fmla="val 47259"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集メニューを押すと、「目標・タスク・雑務」とプルダウンメニューが表示される</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2144,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
